--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.16.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.16.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1087,7 +1087,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1493,7 +1493,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -2165,7 +2165,7 @@
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2193,7 +2193,7 @@
         <v>21</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D96" t="s">
         <v>9</v>
@@ -2207,7 +2207,7 @@
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -2459,7 +2459,7 @@
         <v>46</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D115" t="s">
         <v>7</v>
@@ -2669,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
